--- a/OnBoard/output/trust/catch/Catch_Trust_13.xlsx
+++ b/OnBoard/output/trust/catch/Catch_Trust_13.xlsx
@@ -692,7 +692,7 @@
         </is>
       </c>
       <c r="G8">
-        <v>0.266</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1641,7 +1641,7 @@
         <v>2</v>
       </c>
       <c r="I31">
-        <v>17.14651162790697</v>
+        <v>17.20837209302325</v>
       </c>
     </row>
     <row r="32">
@@ -1682,7 +1682,7 @@
         <v>1</v>
       </c>
       <c r="I32">
-        <v>17.14651162790697</v>
+        <v>17.20837209302325</v>
       </c>
     </row>
     <row r="33">
@@ -1723,7 +1723,7 @@
         <v>11</v>
       </c>
       <c r="I33">
-        <v>17.14651162790697</v>
+        <v>17.20837209302325</v>
       </c>
     </row>
     <row r="34">
@@ -1764,7 +1764,7 @@
         <v>16</v>
       </c>
       <c r="I34">
-        <v>17.14651162790697</v>
+        <v>17.20837209302325</v>
       </c>
     </row>
     <row r="35">
@@ -1805,7 +1805,7 @@
         <v>3</v>
       </c>
       <c r="I35">
-        <v>17.14651162790697</v>
+        <v>17.20837209302325</v>
       </c>
     </row>
     <row r="36">
@@ -1846,7 +1846,7 @@
         <v>6</v>
       </c>
       <c r="I36">
-        <v>17.14651162790697</v>
+        <v>17.20837209302325</v>
       </c>
     </row>
     <row r="37">
@@ -1887,7 +1887,7 @@
         <v>143</v>
       </c>
       <c r="I37">
-        <v>17.14651162790697</v>
+        <v>17.20837209302325</v>
       </c>
     </row>
     <row r="38">
@@ -1928,7 +1928,7 @@
         <v>2</v>
       </c>
       <c r="I38">
-        <v>17.14651162790697</v>
+        <v>17.20837209302325</v>
       </c>
     </row>
     <row r="39">
@@ -1969,7 +1969,7 @@
         <v>3</v>
       </c>
       <c r="I39">
-        <v>17.14651162790697</v>
+        <v>17.20837209302325</v>
       </c>
     </row>
     <row r="40">
@@ -2010,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="I40">
-        <v>17.14651162790697</v>
+        <v>17.20837209302325</v>
       </c>
     </row>
     <row r="41">
@@ -2051,7 +2051,7 @@
         <v>30</v>
       </c>
       <c r="I41">
-        <v>17.14651162790697</v>
+        <v>17.20837209302325</v>
       </c>
     </row>
     <row r="42">
@@ -2089,10 +2089,10 @@
         <v>0.376</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I42">
-        <v>17.14651162790697</v>
+        <v>17.20837209302325</v>
       </c>
     </row>
     <row r="43">
@@ -2133,7 +2133,7 @@
         <v>9</v>
       </c>
       <c r="I43">
-        <v>17.14651162790697</v>
+        <v>17.20837209302325</v>
       </c>
     </row>
     <row r="44">
@@ -2174,7 +2174,7 @@
         <v>90</v>
       </c>
       <c r="I44">
-        <v>17.14651162790697</v>
+        <v>17.20837209302325</v>
       </c>
     </row>
     <row r="45">
@@ -2212,10 +2212,10 @@
         <v>0.203</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I45">
-        <v>17.14651162790697</v>
+        <v>17.20837209302325</v>
       </c>
     </row>
     <row r="46">
@@ -2256,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="I46">
-        <v>17.14651162790697</v>
+        <v>17.20837209302325</v>
       </c>
     </row>
   </sheetData>
